--- a/AAII_Financials/Quarterly/CHGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHGI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>CHGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,124 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>300</v>
-      </c>
-      <c r="O8" s="3">
-        <v>200</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,7 +790,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -793,51 +799,54 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
       <c r="M9" s="3">
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -855,16 +864,19 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1097,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,34 +1107,34 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
@@ -1116,16 +1142,19 @@
       <c r="P17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1143,25 +1172,28 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1217,21 +1250,24 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
@@ -1258,21 +1294,24 @@
         <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1289,12 +1328,12 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1310,16 +1349,19 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
@@ -1346,16 +1388,19 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,16 +1490,19 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
@@ -1478,24 +1529,27 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
@@ -1522,16 +1576,19 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1745,21 +1814,24 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
@@ -1786,16 +1858,19 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,16 +1913,19 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
@@ -1874,65 +1952,71 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1985,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2006,13 +2092,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,19 +2144,22 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2091,16 +2183,19 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2120,11 +2215,11 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
@@ -2143,25 +2238,28 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -2169,26 +2267,29 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2208,31 +2309,34 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2293,7 +2400,7 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,20 +2661,23 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
-        <v>100</v>
-      </c>
       <c r="G54" s="3">
         <v>100</v>
       </c>
@@ -2560,31 +2685,34 @@
         <v>100</v>
       </c>
       <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
       <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>300</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
       </c>
       <c r="P54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,13 +2748,14 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -2658,13 +2788,16 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,31 +2840,34 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>2100</v>
       </c>
       <c r="K59" s="3">
         <v>2100</v>
@@ -2740,42 +2876,45 @@
         <v>2100</v>
       </c>
       <c r="M59" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="N59" s="3">
         <v>1900</v>
       </c>
       <c r="O59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2200</v>
       </c>
       <c r="K60" s="3">
         <v>2200</v>
@@ -2784,7 +2923,7 @@
         <v>2200</v>
       </c>
       <c r="M60" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="N60" s="3">
         <v>2000</v>
@@ -2793,10 +2932,13 @@
         <v>2000</v>
       </c>
       <c r="P60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2856,8 +3001,8 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -2865,8 +3010,8 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,31 +3169,34 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2200</v>
       </c>
       <c r="K66" s="3">
         <v>2200</v>
@@ -3048,7 +3205,7 @@
         <v>2200</v>
       </c>
       <c r="M66" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="N66" s="3">
         <v>2000</v>
@@ -3057,10 +3214,13 @@
         <v>2000</v>
       </c>
       <c r="P66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,43 +3423,46 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-51300</v>
+        <v>-51400</v>
       </c>
       <c r="E72" s="3">
         <v>-51300</v>
       </c>
       <c r="F72" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-51200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-51100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-51000</v>
       </c>
       <c r="I72" s="3">
         <v>-51000</v>
       </c>
       <c r="J72" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-50900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-50800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-50700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-50600</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-50500</v>
       </c>
       <c r="O72" s="3">
         <v>-50500</v>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3">
         <v>-50500</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-50500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="E76" s="3">
         <v>-2400</v>
       </c>
       <c r="F76" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G76" s="3">
         <v>-2300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-2200</v>
       </c>
       <c r="H76" s="3">
         <v>-2200</v>
       </c>
       <c r="I76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J76" s="3">
         <v>-2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-1900</v>
       </c>
       <c r="L76" s="3">
         <v>-1900</v>
       </c>
       <c r="M76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N76" s="3">
         <v>-1800</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1700</v>
       </c>
       <c r="O76" s="3">
         <v>-1700</v>
       </c>
       <c r="P76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,65 +3705,71 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
@@ -3602,16 +3796,19 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3907,13 +4123,13 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -3931,13 +4147,16 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4339,10 +4584,10 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -4363,13 +4608,16 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4427,13 +4678,13 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>CHGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -746,95 +754,107 @@
         <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
-      <c r="N9" s="3">
-        <v>100</v>
-      </c>
       <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
@@ -843,16 +863,16 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -867,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,60 +1150,68 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>800</v>
       </c>
       <c r="L17" s="3">
         <v>500</v>
       </c>
       <c r="M17" s="3">
+        <v>800</v>
+      </c>
+      <c r="N17" s="3">
+        <v>500</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>300</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1160,7 +1220,7 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
@@ -1175,25 +1235,31 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1253,13 +1321,19 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1273,7 +1347,7 @@
         <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
@@ -1297,27 +1371,33 @@
         <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1331,15 +1411,15 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1352,8 +1432,14 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1367,7 +1453,7 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
@@ -1391,16 +1477,22 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1591,14 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1508,7 +1612,7 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
@@ -1532,16 +1636,22 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1555,7 +1665,7 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
@@ -1579,16 +1689,22 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1817,13 +1957,19 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1837,7 +1983,7 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
@@ -1861,16 +2007,22 @@
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,8 +2068,14 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1931,7 +2089,7 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
@@ -1955,68 +2113,80 @@
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2074,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2095,13 +2269,19 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2156,16 +2342,16 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2186,16 +2372,22 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2218,14 +2410,14 @@
         <v>0</v>
       </c>
       <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
@@ -2241,55 +2433,67 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2312,31 +2516,37 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>200</v>
-      </c>
       <c r="M46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
+        <v>300</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>300</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>300</v>
+      </c>
+      <c r="S46" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2403,10 +2619,10 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2429,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2673,7 +2925,7 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
@@ -2682,22 +2934,22 @@
         <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
-        <v>100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>200</v>
-      </c>
       <c r="M54" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
@@ -2706,13 +2958,19 @@
         <v>300</v>
       </c>
       <c r="P54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
+        <v>300</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,19 +3009,21 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -2791,36 +3053,42 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2843,8 +3111,14 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2861,45 +3135,51 @@
         <v>2400</v>
       </c>
       <c r="H59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>2100</v>
       </c>
       <c r="M59" s="3">
         <v>2100</v>
       </c>
       <c r="N59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2500</v>
       </c>
       <c r="F60" s="3">
         <v>2600</v>
@@ -2908,37 +3188,43 @@
         <v>2500</v>
       </c>
       <c r="H60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2200</v>
       </c>
       <c r="M60" s="3">
         <v>2200</v>
       </c>
       <c r="N60" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="O60" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="P60" s="3">
         <v>2000</v>
       </c>
       <c r="Q60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3004,20 +3296,20 @@
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,16 +3482,22 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2500</v>
       </c>
       <c r="F66" s="3">
         <v>2600</v>
@@ -3190,37 +3506,43 @@
         <v>2500</v>
       </c>
       <c r="H66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2200</v>
       </c>
       <c r="M66" s="3">
         <v>2200</v>
       </c>
       <c r="N66" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="O66" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="P66" s="3">
         <v>2000</v>
       </c>
       <c r="Q66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-51400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-51300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-51300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-51200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-51100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-51000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-51000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-50900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-50800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-50700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-50600</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-50500</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-50500</v>
       </c>
       <c r="Q72" s="3">
         <v>-50500</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="S72" s="3">
+        <v>-50500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,8 +3980,14 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3623,46 +3995,52 @@
         <v>-2500</v>
       </c>
       <c r="E76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G76" s="3">
         <v>-2400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,60 +4086,72 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3775,7 +4165,7 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
@@ -3799,16 +4189,22 @@
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,13 +4536,19 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -4126,16 +4560,16 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4150,13 +4584,19 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,16 +4614,18 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,16 +5055,22 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -4587,13 +5079,13 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4611,13 +5103,19 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4681,16 +5185,16 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -4708,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>CHGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,60 +755,63 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>200</v>
       </c>
       <c r="S8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -813,7 +820,7 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -822,60 +829,63 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
-        <v>100</v>
-      </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>200</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -893,16 +903,19 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,16 +1178,17 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>100</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
@@ -1170,34 +1197,34 @@
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
@@ -1205,25 +1232,28 @@
       <c r="S17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1241,25 +1271,28 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,13 +1312,14 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1327,30 +1361,33 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-100</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
@@ -1377,16 +1414,19 @@
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1417,12 +1457,12 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,16 +1490,16 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
@@ -1483,16 +1526,19 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,25 +1646,28 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-100</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -1642,33 +1694,36 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-100</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1695,16 +1750,19 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,13 +1982,16 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1963,30 +2033,33 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-100</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
@@ -2013,16 +2086,19 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,25 +2150,28 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-100</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
@@ -2119,74 +2198,80 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2254,10 +2341,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2275,13 +2362,16 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2348,13 +2441,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2378,16 +2471,19 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2416,11 +2512,11 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2453,20 +2552,20 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
@@ -2474,26 +2573,29 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2522,31 +2624,34 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,13 +2703,16 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -2625,7 +2733,7 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,13 +3039,16 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
@@ -2931,14 +3057,14 @@
         <v>200</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
@@ -2946,31 +3072,34 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>300</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
       </c>
       <c r="S54" s="3">
+        <v>300</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,22 +3141,23 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -3059,21 +3190,24 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="E58" s="3">
+        <v>100</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -3090,8 +3224,8 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3126,31 +3263,31 @@
         <v>2500</v>
       </c>
       <c r="E59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>2100</v>
       </c>
       <c r="N59" s="3">
         <v>2100</v>
@@ -3159,19 +3296,22 @@
         <v>2100</v>
       </c>
       <c r="P59" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="Q59" s="3">
         <v>1900</v>
       </c>
       <c r="R59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S59" s="3">
         <v>1800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,31 +3319,31 @@
         <v>2700</v>
       </c>
       <c r="E60" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F60" s="3">
         <v>2600</v>
       </c>
       <c r="G60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2200</v>
       </c>
       <c r="N60" s="3">
         <v>2200</v>
@@ -3212,7 +3352,7 @@
         <v>2200</v>
       </c>
       <c r="P60" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="Q60" s="3">
         <v>2000</v>
@@ -3221,10 +3361,13 @@
         <v>2000</v>
       </c>
       <c r="S60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3302,8 +3448,8 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3497,31 +3655,31 @@
         <v>2700</v>
       </c>
       <c r="E66" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F66" s="3">
         <v>2600</v>
       </c>
       <c r="G66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2200</v>
       </c>
       <c r="N66" s="3">
         <v>2200</v>
@@ -3530,7 +3688,7 @@
         <v>2200</v>
       </c>
       <c r="P66" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="Q66" s="3">
         <v>2000</v>
@@ -3539,10 +3697,13 @@
         <v>2000</v>
       </c>
       <c r="S66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,52 +3945,55 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-51500</v>
+        <v>-51600</v>
       </c>
       <c r="E72" s="3">
         <v>-51500</v>
       </c>
       <c r="F72" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-51400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-51300</v>
       </c>
       <c r="H72" s="3">
         <v>-51300</v>
       </c>
       <c r="I72" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-51200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-51100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-51000</v>
       </c>
       <c r="L72" s="3">
         <v>-51000</v>
       </c>
       <c r="M72" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="N72" s="3">
         <v>-50900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-50800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-50700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-50600</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-50500</v>
       </c>
       <c r="R72" s="3">
         <v>-50500</v>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3">
         <v>-50500</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-50500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,13 +4169,16 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="E76" s="3">
         <v>-2500</v>
@@ -4001,46 +4187,49 @@
         <v>-2500</v>
       </c>
       <c r="G76" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="H76" s="3">
         <v>-2400</v>
       </c>
       <c r="I76" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J76" s="3">
         <v>-2300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-2200</v>
       </c>
       <c r="K76" s="3">
         <v>-2200</v>
       </c>
       <c r="L76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M76" s="3">
         <v>-2100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1900</v>
       </c>
       <c r="O76" s="3">
         <v>-1900</v>
       </c>
       <c r="P76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-1700</v>
       </c>
       <c r="R76" s="3">
         <v>-1700</v>
       </c>
       <c r="S76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="T76" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,83 +4281,89 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-100</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
@@ -4195,16 +4390,19 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,16 +4756,19 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -4566,13 +4783,13 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4590,13 +4807,16 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,19 +4836,20 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,19 +5304,22 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5085,10 +5331,10 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -5109,13 +5355,16 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5191,13 +5443,13 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>CHGI</t>
   </si>
@@ -1184,8 +1184,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1240,8 +1240,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1318,8 +1318,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1374,8 +1374,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
         <v>-100</v>
@@ -1654,8 +1654,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1710,8 +1710,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -1990,8 +1990,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2046,8 +2046,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -2158,8 +2158,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -4350,8 +4350,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>

--- a/AAII_Financials/Quarterly/CHGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHGI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,63 +761,66 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>300</v>
-      </c>
-      <c r="S8" s="3">
-        <v>200</v>
       </c>
       <c r="T8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -823,7 +829,7 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -832,63 +838,66 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
-        <v>100</v>
-      </c>
       <c r="Q9" s="3">
         <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>200</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -906,16 +915,19 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,19 +1204,20 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -1200,34 +1226,34 @@
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
@@ -1235,13 +1261,16 @@
       <c r="T17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1250,13 +1279,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1274,25 +1303,28 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1364,33 +1397,36 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
@@ -1417,16 +1453,19 @@
         <v>-100</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
       <c r="T21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1440,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1460,12 +1499,12 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1481,8 +1520,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1493,16 +1535,16 @@
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1529,16 +1571,19 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1697,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1661,16 +1712,16 @@
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1697,16 +1748,19 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1717,16 +1771,16 @@
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1753,16 +1807,19 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2036,13 +2105,16 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2053,16 +2125,16 @@
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -2089,16 +2161,19 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2228,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2165,16 +2243,16 @@
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -2201,77 +2279,83 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2344,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2365,13 +2451,16 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2444,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2474,21 +2566,24 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
-        <v>100</v>
-      </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -2515,11 +2610,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
         <v>300</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2555,20 +2653,20 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
@@ -2576,31 +2674,34 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
-        <v>100</v>
-      </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -2627,31 +2728,34 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
+        <v>200</v>
+      </c>
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,16 +2810,19 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -2736,7 +2843,7 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3164,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,7 +3176,7 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
@@ -3060,14 +3185,14 @@
         <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
@@ -3075,31 +3200,34 @@
         <v>100</v>
       </c>
       <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
       <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>200</v>
-      </c>
-      <c r="R54" s="3">
-        <v>300</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
       </c>
       <c r="T54" s="3">
+        <v>300</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,25 +3271,26 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -3193,13 +3323,16 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3209,8 +3342,8 @@
       <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+      <c r="F58" s="3">
+        <v>100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -3227,8 +3360,8 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3254,43 +3387,46 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E59" s="3">
         <v>2500</v>
       </c>
       <c r="F59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>2100</v>
       </c>
       <c r="O59" s="3">
         <v>2100</v>
@@ -3299,54 +3435,57 @@
         <v>2100</v>
       </c>
       <c r="Q59" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="R59" s="3">
         <v>1900</v>
       </c>
       <c r="S59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T59" s="3">
         <v>1800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E60" s="3">
         <v>2700</v>
       </c>
       <c r="F60" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G60" s="3">
         <v>2600</v>
       </c>
       <c r="H60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2200</v>
       </c>
       <c r="O60" s="3">
         <v>2200</v>
@@ -3355,7 +3494,7 @@
         <v>2200</v>
       </c>
       <c r="Q60" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="R60" s="3">
         <v>2000</v>
@@ -3364,10 +3503,13 @@
         <v>2000</v>
       </c>
       <c r="T60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3451,8 +3596,8 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
@@ -3460,8 +3605,8 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,43 +3800,46 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E66" s="3">
         <v>2700</v>
       </c>
       <c r="F66" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G66" s="3">
         <v>2600</v>
       </c>
       <c r="H66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2200</v>
       </c>
       <c r="O66" s="3">
         <v>2200</v>
@@ -3691,7 +3848,7 @@
         <v>2200</v>
       </c>
       <c r="Q66" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="R66" s="3">
         <v>2000</v>
@@ -3700,10 +3857,13 @@
         <v>2000</v>
       </c>
       <c r="T66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,55 +4118,58 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-51700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-51600</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-51500</v>
       </c>
       <c r="F72" s="3">
         <v>-51500</v>
       </c>
       <c r="G72" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="H72" s="3">
         <v>-51400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-51300</v>
       </c>
       <c r="I72" s="3">
         <v>-51300</v>
       </c>
       <c r="J72" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-51200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-51100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-51000</v>
       </c>
       <c r="M72" s="3">
         <v>-51000</v>
       </c>
       <c r="N72" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="O72" s="3">
         <v>-50900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-50800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-50700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-50600</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-50500</v>
       </c>
       <c r="S72" s="3">
         <v>-50500</v>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3">
         <v>-50500</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-50500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,16 +4354,19 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2600</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-2500</v>
       </c>
       <c r="F76" s="3">
         <v>-2500</v>
@@ -4190,46 +4375,49 @@
         <v>-2500</v>
       </c>
       <c r="H76" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="I76" s="3">
         <v>-2400</v>
       </c>
       <c r="J76" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-2300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-2200</v>
       </c>
       <c r="L76" s="3">
         <v>-2200</v>
       </c>
       <c r="M76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="N76" s="3">
         <v>-2100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1900</v>
       </c>
       <c r="P76" s="3">
         <v>-1900</v>
       </c>
       <c r="Q76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="R76" s="3">
         <v>-1800</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-1700</v>
       </c>
       <c r="S76" s="3">
         <v>-1700</v>
       </c>
       <c r="T76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="U76" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4472,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4357,16 +4551,16 @@
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -4393,16 +4587,19 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,10 +4984,10 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -4786,13 +5002,13 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4810,13 +5026,16 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,22 +5056,23 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,19 +5549,22 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
         <v>0</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5334,10 +5579,10 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5358,13 +5603,16 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5446,13 +5697,13 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>CHGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -764,52 +768,55 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>300</v>
-      </c>
-      <c r="T8" s="3">
-        <v>200</v>
       </c>
       <c r="U8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -832,7 +839,7 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -841,66 +848,69 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
-        <v>100</v>
-      </c>
       <c r="R9" s="3">
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>200</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -918,16 +928,19 @@
         <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,31 +1084,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1214,13 +1241,13 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1229,34 +1256,34 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
@@ -1264,16 +1291,19 @@
       <c r="U17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-100</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1282,13 +1312,13 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1306,25 +1336,28 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,13 +1379,14 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1400,36 +1434,39 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-100</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
@@ -1456,16 +1493,19 @@
         <v>-100</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
       <c r="U21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1482,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1502,12 +1542,12 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1523,13 +1563,16 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1538,16 +1581,16 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1574,16 +1617,19 @@
         <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
       <c r="U23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,13 +1749,16 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1715,16 +1767,16 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1751,21 +1803,24 @@
         <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -1774,16 +1829,16 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -1810,16 +1865,19 @@
         <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,13 +2121,16 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2108,18 +2178,21 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -2128,16 +2201,16 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -2164,16 +2237,19 @@
         <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,13 +2307,16 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -2246,16 +2325,16 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -2282,80 +2361,86 @@
         <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2433,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2454,13 +2541,16 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2539,13 +2632,13 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2569,24 +2662,27 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
-        <v>100</v>
-      </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2613,11 +2709,11 @@
         <v>0</v>
       </c>
       <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
         <v>300</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2656,20 +2755,20 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
@@ -2677,26 +2776,29 @@
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2704,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -2731,31 +2833,34 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
-      </c>
-      <c r="R46" s="3">
-        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
+        <v>200</v>
+      </c>
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2822,10 +2930,10 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -2846,7 +2954,7 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,8 +3290,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3179,7 +3305,7 @@
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
@@ -3188,14 +3314,14 @@
         <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
-        <v>100</v>
-      </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
@@ -3203,31 +3329,34 @@
         <v>100</v>
       </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>200</v>
-      </c>
-      <c r="S54" s="3">
-        <v>300</v>
       </c>
       <c r="T54" s="3">
         <v>300</v>
       </c>
       <c r="U54" s="3">
+        <v>300</v>
+      </c>
+      <c r="V54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3281,19 +3412,19 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -3326,13 +3457,16 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3345,8 +3479,8 @@
       <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
+      <c r="G58" s="3">
+        <v>100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -3363,8 +3497,8 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3390,8 +3524,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3399,37 +3536,37 @@
         <v>2600</v>
       </c>
       <c r="E59" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F59" s="3">
         <v>2500</v>
       </c>
       <c r="G59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>2100</v>
       </c>
       <c r="P59" s="3">
         <v>2100</v>
@@ -3438,19 +3575,22 @@
         <v>2100</v>
       </c>
       <c r="R59" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="S59" s="3">
         <v>1900</v>
       </c>
       <c r="T59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U59" s="3">
         <v>1800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3458,37 +3598,37 @@
         <v>2800</v>
       </c>
       <c r="E60" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F60" s="3">
         <v>2700</v>
       </c>
       <c r="G60" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H60" s="3">
         <v>2600</v>
       </c>
       <c r="I60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2200</v>
       </c>
       <c r="P60" s="3">
         <v>2200</v>
@@ -3497,7 +3637,7 @@
         <v>2200</v>
       </c>
       <c r="R60" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="S60" s="3">
         <v>2000</v>
@@ -3506,10 +3646,13 @@
         <v>2000</v>
       </c>
       <c r="U60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3599,8 +3745,8 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -3608,8 +3754,8 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,8 +3958,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3812,37 +3970,37 @@
         <v>2800</v>
       </c>
       <c r="E66" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F66" s="3">
         <v>2700</v>
       </c>
       <c r="G66" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H66" s="3">
         <v>2600</v>
       </c>
       <c r="I66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2200</v>
       </c>
       <c r="P66" s="3">
         <v>2200</v>
@@ -3851,7 +4009,7 @@
         <v>2200</v>
       </c>
       <c r="R66" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="S66" s="3">
         <v>2000</v>
@@ -3860,10 +4018,13 @@
         <v>2000</v>
       </c>
       <c r="U66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,58 +4292,61 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-51700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-51600</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-51500</v>
       </c>
       <c r="G72" s="3">
         <v>-51500</v>
       </c>
       <c r="H72" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="I72" s="3">
         <v>-51400</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-51300</v>
       </c>
       <c r="J72" s="3">
         <v>-51300</v>
       </c>
       <c r="K72" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-51200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-51100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-51000</v>
       </c>
       <c r="N72" s="3">
         <v>-51000</v>
       </c>
       <c r="O72" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="P72" s="3">
         <v>-50900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-50800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-50700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-50600</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-50500</v>
       </c>
       <c r="T72" s="3">
         <v>-50500</v>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3">
         <v>-50500</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-50500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,8 +4540,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4366,10 +4552,10 @@
         <v>-2700</v>
       </c>
       <c r="E76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2600</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-2500</v>
       </c>
       <c r="G76" s="3">
         <v>-2500</v>
@@ -4378,46 +4564,49 @@
         <v>-2500</v>
       </c>
       <c r="I76" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="J76" s="3">
         <v>-2400</v>
       </c>
       <c r="K76" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="L76" s="3">
         <v>-2300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-2200</v>
       </c>
       <c r="M76" s="3">
         <v>-2200</v>
       </c>
       <c r="N76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="O76" s="3">
         <v>-2100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-1900</v>
       </c>
       <c r="Q76" s="3">
         <v>-1900</v>
       </c>
       <c r="R76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1800</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-1700</v>
       </c>
       <c r="T76" s="3">
         <v>-1700</v>
       </c>
       <c r="U76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="V76" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,77 +4664,83 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -4554,16 +4749,16 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -4590,16 +4785,19 @@
         <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
       <c r="U81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4987,10 +5204,10 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -5005,13 +5222,13 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -5029,13 +5246,16 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,25 +5277,26 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,13 +5461,16 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5582,10 +5828,10 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -5606,13 +5852,16 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5700,13 +5952,13 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>CHGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,121 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -780,54 +788,60 @@
         <v>200</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -836,54 +850,60 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
-        <v>100</v>
-      </c>
-      <c r="S9" s="3">
-        <v>100</v>
-      </c>
       <c r="T9" s="3">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
         <v>200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>200</v>
       </c>
-      <c r="V9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
@@ -895,10 +915,10 @@
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
@@ -907,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -931,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U10" s="3">
         <v>0</v>
@@ -939,8 +959,14 @@
       <c r="V10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,19 +1121,25 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1113,11 +1153,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1284,10 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1244,78 +1298,84 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>800</v>
       </c>
       <c r="Q17" s="3">
         <v>500</v>
       </c>
       <c r="R17" s="3">
+        <v>800</v>
+      </c>
+      <c r="S17" s="3">
+        <v>500</v>
+      </c>
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>300</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>300</v>
+      </c>
+      <c r="X17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -1324,7 +1384,7 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1339,25 +1399,31 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
       <c r="V18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,13 +1446,15 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1437,24 +1505,30 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>100</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
@@ -1472,7 +1546,7 @@
         <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
@@ -1496,16 +1570,22 @@
         <v>-100</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1525,13 +1605,13 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1545,15 +1625,15 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
@@ -1566,25 +1646,31 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
@@ -1596,7 +1682,7 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1620,16 +1706,22 @@
         <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,25 +1850,31 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -1782,7 +1886,7 @@
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -1806,33 +1910,39 @@
         <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1844,7 +1954,7 @@
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -1868,16 +1978,22 @@
         <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,13 +2258,19 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2181,30 +2321,36 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
@@ -2216,7 +2362,7 @@
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
@@ -2240,16 +2386,22 @@
         <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,25 +2462,31 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
@@ -2340,7 +2498,7 @@
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
@@ -2364,83 +2522,95 @@
         <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,16 +2659,18 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2523,13 +2697,13 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2544,13 +2718,19 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2791,14 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2635,16 +2821,16 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2665,31 +2851,37 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="3">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>100</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
@@ -2712,14 +2904,14 @@
         <v>0</v>
       </c>
       <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
         <v>300</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
@@ -2735,16 +2927,22 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2758,61 +2956,67 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
-        <v>100</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -2836,31 +3040,37 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>200</v>
-      </c>
       <c r="R46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
+        <v>300</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
-      </c>
-      <c r="U46" s="3">
-        <v>300</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>300</v>
+      </c>
+      <c r="X46" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3131,14 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2930,16 +3146,16 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -2957,10 +3173,10 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2983,8 +3199,14 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,31 +3539,37 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
@@ -3326,22 +3578,22 @@
         <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
       </c>
       <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>200</v>
-      </c>
       <c r="R54" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
@@ -3350,13 +3602,19 @@
         <v>300</v>
       </c>
       <c r="U54" s="3">
+        <v>200</v>
+      </c>
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
+        <v>300</v>
+      </c>
+      <c r="X54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,19 +3663,21 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -3424,13 +3686,13 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -3460,13 +3722,19 @@
         <v>100</v>
       </c>
       <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3482,11 +3750,11 @@
       <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+      <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -3500,11 +3768,11 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3527,25 +3795,31 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="E59" s="3">
         <v>2600</v>
       </c>
       <c r="F59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H59" s="3">
         <v>2500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2400</v>
       </c>
       <c r="I59" s="3">
         <v>2500</v>
@@ -3560,60 +3834,66 @@
         <v>2400</v>
       </c>
       <c r="M59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>2100</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>2100</v>
       </c>
       <c r="R59" s="3">
         <v>2100</v>
       </c>
       <c r="S59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U59" s="3">
         <v>1900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2500</v>
       </c>
       <c r="K60" s="3">
         <v>2600</v>
@@ -3622,37 +3902,43 @@
         <v>2500</v>
       </c>
       <c r="M60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O60" s="3">
         <v>2400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2500</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>2200</v>
       </c>
       <c r="R60" s="3">
         <v>2200</v>
       </c>
       <c r="S60" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="T60" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="U60" s="3">
         <v>2000</v>
       </c>
       <c r="V60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3999,14 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3748,20 +4040,20 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,31 +4271,37 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2500</v>
       </c>
       <c r="K66" s="3">
         <v>2600</v>
@@ -3994,37 +4310,43 @@
         <v>2500</v>
       </c>
       <c r="M66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
-      </c>
-      <c r="P66" s="3">
-        <v>2200</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>2200</v>
       </c>
       <c r="R66" s="3">
         <v>2200</v>
       </c>
       <c r="S66" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="T66" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="U66" s="3">
         <v>2000</v>
       </c>
       <c r="V66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-51900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-51700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-51600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-51500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-51500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-51400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-51300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-51300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-51200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-51100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-51000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-51000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-50900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-50800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-50700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-50600</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-50500</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-50500</v>
       </c>
       <c r="V72" s="3">
         <v>-50500</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="X72" s="3">
+        <v>-50500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-2500</v>
       </c>
       <c r="I76" s="3">
         <v>-2500</v>
       </c>
       <c r="J76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="L76" s="3">
         <v>-2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,92 +5045,104 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
@@ -4764,7 +5154,7 @@
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
@@ -4788,16 +5178,22 @@
         <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,28 +5620,34 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -5225,16 +5659,16 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5249,13 +5683,19 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,31 +5718,33 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
+      <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,19 +5918,25 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5526,8 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6284,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5831,13 +6323,13 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5855,13 +6347,19 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,16 +6420,22 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -5955,16 +6459,16 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -5982,6 +6486,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>
